--- a/desarrollo/copa-vacations/Paquetes para la WEB Diciembre (Autosaved).xlsx
+++ b/desarrollo/copa-vacations/Paquetes para la WEB Diciembre (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="7152" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="7152" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CM Vacations" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1034,27 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,6 +1054,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1369,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1521,283 +1520,283 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" s="56" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:22" s="49" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>689</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="52">
+      <c r="E5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="45">
         <v>4</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="45">
         <v>3</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="56" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:22" s="49" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="45">
         <v>959</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="52">
+      <c r="E6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="45">
         <v>4</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="45">
         <v>3</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="53" t="s">
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="56" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:22" s="49" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="45">
         <v>749</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="52" t="s">
+      <c r="E7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="45">
         <v>4</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="45">
         <v>3</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="56" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:22" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="45">
         <v>899</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="52" t="s">
+      <c r="E8" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="45">
         <v>4</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="45">
         <v>3</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:22" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="45">
         <v>1749</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="52">
+      <c r="E9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="45">
         <v>8</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="45">
         <v>7</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="1:22" s="24" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
@@ -2058,7 +2057,7 @@
       <c r="R14" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="S14" s="49"/>
+      <c r="S14" s="55"/>
     </row>
     <row r="15" spans="1:22" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
@@ -2109,7 +2108,7 @@
       <c r="R15" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="S15" s="49"/>
+      <c r="S15" s="55"/>
     </row>
     <row r="16" spans="1:22" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
@@ -2226,7 +2225,7 @@
       <c r="S17" s="39"/>
     </row>
     <row r="18" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -2235,7 +2234,7 @@
       <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="58">
         <v>1872</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -2250,10 +2249,10 @@
       <c r="H18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="59">
         <v>8</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="59">
         <v>7</v>
       </c>
       <c r="K18" s="22" t="s">
@@ -2262,19 +2261,19 @@
       <c r="L18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="46" t="s">
+      <c r="Q18" s="54" t="s">
         <v>93</v>
       </c>
       <c r="R18" s="37" t="s">
@@ -2283,14 +2282,14 @@
       <c r="S18" s="39"/>
     </row>
     <row r="19" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="22" t="s">
         <v>14</v>
       </c>
@@ -2303,19 +2302,19 @@
       <c r="H19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="23" t="s">
         <v>94</v>
       </c>
       <c r="L19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="37" t="s">
         <v>107</v>
       </c>
@@ -3459,6 +3458,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="S14:S15"/>
@@ -3467,13 +3473,6 @@
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="R5:R8"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R5" r:id="rId1" display="www.copavacations.com.co"/>
@@ -3487,7 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3499,7 @@
       <c r="A1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="50">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -3508,7 +3507,7 @@
       <c r="A2" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="50">
         <v>0.23611111111111113</v>
       </c>
     </row>
@@ -3516,7 +3515,7 @@
       <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="50">
         <v>0.30486111111111108</v>
       </c>
     </row>
@@ -3524,7 +3523,7 @@
       <c r="A4" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="50">
         <v>0.18194444444444444</v>
       </c>
     </row>
@@ -3532,7 +3531,7 @@
       <c r="A5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="50">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -3540,12 +3539,12 @@
       <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="50">
         <v>0.15763888888888888</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>160</v>
       </c>
     </row>
